--- a/Service.Catalog/wwwroot/layout/excel/Maquilador/MaquiladorFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/Maquilador/MaquiladorFormulario.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\Indicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\Maquilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58B359-ADE7-42D9-9CA3-38E571D3ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B927B4-D5E3-4731-921C-CC4D26BB26A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Maquilador" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Estudios" localSheetId="0">Indicaciones!$A$15:$D$16</definedName>
+    <definedName name="Maquilador" localSheetId="0">Maquilador!$A$15:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Clave</t>
   </si>
@@ -86,47 +86,80 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>Descripcíon</t>
-  </si>
-  <si>
-    <t>{{Indicaciones.Clave}}</t>
-  </si>
-  <si>
-    <t>{{Indicaciones.Nombre}}</t>
-  </si>
-  <si>
-    <t>{{Indicaciones.Descripcion}}</t>
-  </si>
-  <si>
-    <t>{{Indicaciones.Activo}}</t>
-  </si>
-  <si>
-    <t>{{item.nombre}}</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>{{item.clave}}</t>
-  </si>
-  <si>
-    <t>{{item.area}}</t>
-  </si>
-  <si>
-    <t>ID Estudio</t>
-  </si>
-  <si>
-    <t>Estudio</t>
-  </si>
-  <si>
-    <t>Área</t>
+    <t>CodigoPostal</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>NumeroExterior</t>
+  </si>
+  <si>
+    <t>NumeroInterior</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>PaginaWeb</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Ciudad}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Clave}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Nombre}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Correo}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Telefono}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.PaginaWeb}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Activo}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.CodigoPostal}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Estado}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.NumeroExterior}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.NumeroInterior}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Calle}}</t>
+  </si>
+  <si>
+    <t>{{Maquilador.Colonia}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +198,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,10 +231,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -194,30 +243,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,167 +624,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>HYPERLINK(B10)</f>
+        <v>{{Maquilador.PaginaWeb}}</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="14">
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
